--- a/data/hotels_by_city/Denver/Denver_shard_200.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d119936-Reviews-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-East-Aurora.h1029877.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,921 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r586442736-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>119936</t>
+  </si>
+  <si>
+    <t>586442736</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Very reasonable and beds were comfy!</t>
+  </si>
+  <si>
+    <t>Check in was a breeze even though I checked in 10 minutes before midnight. The front desk guy was very professional and efficient. Lobby smelled good at check in and was clean which left a good first impression. There was night time security. Rooms were small, but the beds were soft and comfy. No housekeeping because I had dogs with me, until I specifically stated I wanted my room cleaned, and we agreed to leave for an hour. Problems with room were tended to immediately. Pros: Soft beds, lots of parking, pets stay free, kids stay free, outdoor pool, night time security, lots of channels on tv, problems rectified in a timely manner, close to interstate, and yummy restaurants close by.Cons: Hall smell of Marijuanna, weekly rates are ridiculous for a room without a MICROWAVE or FRIDGE! Elevators were broke 75% of the time and we were on the 3rd floor. Vending machines were broke 25% of the time. No housekeeping if you have pets. People selling drugs outside the hotel front doors (My 15 year old was offered MJ). Fire department down the street so you hear all the calls (this came in handy for the alcoholic who passed out, outside the front doors and needed EMS). No breakfast :-(   MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Check in was a breeze even though I checked in 10 minutes before midnight. The front desk guy was very professional and efficient. Lobby smelled good at check in and was clean which left a good first impression. There was night time security. Rooms were small, but the beds were soft and comfy. No housekeeping because I had dogs with me, until I specifically stated I wanted my room cleaned, and we agreed to leave for an hour. Problems with room were tended to immediately. Pros: Soft beds, lots of parking, pets stay free, kids stay free, outdoor pool, night time security, lots of channels on tv, problems rectified in a timely manner, close to interstate, and yummy restaurants close by.Cons: Hall smell of Marijuanna, weekly rates are ridiculous for a room without a MICROWAVE or FRIDGE! Elevators were broke 75% of the time and we were on the 3rd floor. Vending machines were broke 25% of the time. No housekeeping if you have pets. People selling drugs outside the hotel front doors (My 15 year old was offered MJ). Fire department down the street so you hear all the calls (this came in handy for the alcoholic who passed out, outside the front doors and needed EMS). No breakfast :-(   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r563812599-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>563812599</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Just don't</t>
+  </si>
+  <si>
+    <t>This hotel has changed and not for the better. I have stayed here several times before as evidenced by my previous review, but this time will be the last. There seems to be several "commercial enterprises" being run out of this location. Numerous people "hanging out" in the lobby. The last straw was when I called the lobby about a R.V. turned food truck running his generator at midnight, directly behind the hotel. The front desk informed me there was nothing they could do about it. I reminded her that I was told that if I didn't have a parking pass my car would be towed. At that point I was told to hold my horses he would be done in about 20 minutes. Do NOT be fooled walking in during the day as this place seriously changes at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Denver East - Aurora, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has changed and not for the better. I have stayed here several times before as evidenced by my previous review, but this time will be the last. There seems to be several "commercial enterprises" being run out of this location. Numerous people "hanging out" in the lobby. The last straw was when I called the lobby about a R.V. turned food truck running his generator at midnight, directly behind the hotel. The front desk informed me there was nothing they could do about it. I reminded her that I was told that if I didn't have a parking pass my car would be towed. At that point I was told to hold my horses he would be done in about 20 minutes. Do NOT be fooled walking in during the day as this place seriously changes at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r528852427-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>528852427</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best near Denver </t>
+  </si>
+  <si>
+    <t>Check in was miserable- no place to park UHaul truck or trailer, lengthy and intrusive check in form, and staff disagreed with their manager. The neighborhood is seedy. The room was not bad but also not good.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r513664046-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>513664046</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the price you should not ask for more. At least is clean. They don't have the complementary things that other motels offer but look in the area that you are staying. Improvements yes they can but in the society that everything revolves around money they probably would race their prices too. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r500319303-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>500319303</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Stopped here as I was traveling out to the west coast. The hotel room was nice and clean and an updated motel 6. The surrounding area was nice and felt safe. The staff were friendly and informative. Would recommend this place to friends and family.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r498091681-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>498091681</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>great locations, staff is great and price is great. we have been staying here for a long time and this was the best stay we have had. We have noticed new management and they have really cleaned up this location</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r461300819-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>461300819</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Where's the shampoo?</t>
+  </si>
+  <si>
+    <t>Clean room, nice area of town, but they don't provide complimentary shampoo/conditioner.  If you want it, you need to go to the lobby and buy it from the vending machine.  Does Motel 6 really save that much by doing this?  Charge 25 or 50 cents more per room and make it easy on your guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Denver East - Aurora, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Clean room, nice area of town, but they don't provide complimentary shampoo/conditioner.  If you want it, you need to go to the lobby and buy it from the vending machine.  Does Motel 6 really save that much by doing this?  Charge 25 or 50 cents more per room and make it easy on your guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r459420861-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>459420861</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver visit </t>
+  </si>
+  <si>
+    <t>We stay at this Motel every time we go to Aurora. We love the service that we get from everyone here. The rooms are exceptional for the price. The motel is always clean and smells great. I would recommend this to any of my friends and family staying in Aurora Colorado. And I will continue to stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r456472963-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>456472963</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Great Price, Great Service!!</t>
+  </si>
+  <si>
+    <t>Great Location, Great Price, Great Service!!I have traveled across our great country (the USA) and around our huge world for over 30 years.As I travel, I am always looking for the best deals in the most affordable motels.I must say that I had one of my best experiences at this Motel 6 (Motel 6 Denver East Aurora, CO, 14031 East Illiff Avenue, Aurora, CO 80014).I arrived on January 28, 2017 and checked out on January 31, 2017.Both my check-in and check-out went real well, big thanks to very kind front desk staffs.The front desk staffs, both day and night shift staffs, were very nice all the time.My room was very, very clean.For such an expensive neighborhood, I was surprised of this particular motel's great price.For such an affordable price, I was surprised of this particular motel's great service.If you stay at this Motel 6, it might also change your view Motel 6.Not all Motel 6’s (and not all affordable motels) are the same.-- by Changyon Pak (“Steven” Pak); Born in Seoul, Korea; Raised and Educated in State of Iowa; Proud Resident of State of Missouri; Biggest Fan of the Chicago Bulls; World Traveler for Over 30 Years; Volunteer &amp; Founder of “Lights of Hopes”MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Great Location, Great Price, Great Service!!I have traveled across our great country (the USA) and around our huge world for over 30 years.As I travel, I am always looking for the best deals in the most affordable motels.I must say that I had one of my best experiences at this Motel 6 (Motel 6 Denver East Aurora, CO, 14031 East Illiff Avenue, Aurora, CO 80014).I arrived on January 28, 2017 and checked out on January 31, 2017.Both my check-in and check-out went real well, big thanks to very kind front desk staffs.The front desk staffs, both day and night shift staffs, were very nice all the time.My room was very, very clean.For such an expensive neighborhood, I was surprised of this particular motel's great price.For such an affordable price, I was surprised of this particular motel's great service.If you stay at this Motel 6, it might also change your view Motel 6.Not all Motel 6’s (and not all affordable motels) are the same.-- by Changyon Pak (“Steven” Pak); Born in Seoul, Korea; Raised and Educated in State of Iowa; Proud Resident of State of Missouri; Biggest Fan of the Chicago Bulls; World Traveler for Over 30 Years; Volunteer &amp; Founder of “Lights of Hopes”More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451946881-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451946881</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Clean and friendly best hotel in town</t>
+  </si>
+  <si>
+    <t>My stay was perfect. The manager is awesome and very professional I have been staying at this location for awhile and this stay was great. I know they are under new management and you can tell so clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451321620-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451321620</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay great price</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because of the close by shopping and restaurants. The customer service was fantastic. The rooms were clean and comfortable and you get beyond your monies worth. Can't wait to visit again MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because of the close by shopping and restaurants. The customer service was fantastic. The rooms were clean and comfortable and you get beyond your monies worth. Can't wait to visit again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451319520-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451319520</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The Staff was amazing, the rooms were clean and well priced. I Was a little hesitant due to the location, but i was pleasantly surprised. I Would definitely recommend this motel to friends and family. MoreShow less</t>
+  </si>
+  <si>
+    <t>The Staff was amazing, the rooms were clean and well priced. I Was a little hesitant due to the location, but i was pleasantly surprised. I Would definitely recommend this motel to friends and family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r425730093-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>425730093</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Clean and Friendly place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was amazing the staff is friendly and the rooms are clean. They are under new management and it is obvious that the manager iOS involved in the daily operations of the hotel I have stayed here years ago and it was awful but now it is amazing </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r423482300-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>423482300</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Clean, simple, friendly</t>
+  </si>
+  <si>
+    <t>Location is convenient to I-225 and Anschutz Medical Campus.  Staff very friendly.  My room was simple, even Spartan, but I wasn't expecting the Ritz.  It was clean and comfy.  My only complaint is that the walls/ceilings are a bit thin, so if you have noisy neighbors it is going to be loud.  I recommend the top floor.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r406400822-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>406400822</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both...We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both wall lights to be on. I guess this is another modern feature? The tv was smudged with hand prints that we had to wipe off to see clearly, and the remote had no back and also felt vaguely sticky, but perhaps I was just afraid of what could be safely touched at this point. The bathroom seemed cleaner than the bedroom, as my shoes didn't stick to the tile, but I felt that the wall switch plate was cracked when I turned the light on. With light, my eyes were drawn to the strange metal contraption sitting on the toilet tank. Ah, the toilet paper holder was broken, but they had been kind enough to leave us the broken parts should we decide to try and repair it ourselves. Very modern thinking! Beds were ... Technically beds so I guess I can't complain too much about them. All in all, my typical experience with this chain of motels, and as usual I regretted going back on my word to never come back. If you can afford it, go for somewhere else. If not, at least the AC worked ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both...We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both wall lights to be on. I guess this is another modern feature? The tv was smudged with hand prints that we had to wipe off to see clearly, and the remote had no back and also felt vaguely sticky, but perhaps I was just afraid of what could be safely touched at this point. The bathroom seemed cleaner than the bedroom, as my shoes didn't stick to the tile, but I felt that the wall switch plate was cracked when I turned the light on. With light, my eyes were drawn to the strange metal contraption sitting on the toilet tank. Ah, the toilet paper holder was broken, but they had been kind enough to leave us the broken parts should we decide to try and repair it ourselves. Very modern thinking! Beds were ... Technically beds so I guess I can't complain too much about them. All in all, my typical experience with this chain of motels, and as usual I regretted going back on my word to never come back. If you can afford it, go for somewhere else. If not, at least the AC worked ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r398358462-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>398358462</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>I loved the employees the manager takes care of needs of the guests,I just didn't like the people who were around area I disabled and two strangers pushed my scooter over with my service dog over and robbed me I was in Applebee's by Rosie's diner.to know two men would rob a disabled woman is appalling but it wasn't on motel six property just one parking lot over,daytime,there some desperate drug addicts that prey on the weak</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r391901395-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>391901395</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Pass..</t>
+  </si>
+  <si>
+    <t>Bed was nasty, hair and poop in the toilet . rooms and hall ways smell. All other hotel in walking g distance was full so we had to stay. ( our limo service already left) should have read reviews. Will not stay here ever again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r388547128-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>388547128</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Ok For A Crashpad Only</t>
+  </si>
+  <si>
+    <t>I needed a place to sleep while traveling long distance.  It was just OK but don't think I'd stay again and definitely not for more than 1 night.  It may be cheaper than other hotels but NO breakfast so figure that into your budget.  The room was very tiny and I was on the 1st floor so sounded like elephants above me.  There were NO shampoos, etc - really just the bare essentials.  The pool did look very refreshing and was outside so this would be a plus with kids.  The best thing about this place was walking across the parking lot to a 50's diner, Rosie's - sit at the counter and have a hot fudge sundae.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I needed a place to sleep while traveling long distance.  It was just OK but don't think I'd stay again and definitely not for more than 1 night.  It may be cheaper than other hotels but NO breakfast so figure that into your budget.  The room was very tiny and I was on the 1st floor so sounded like elephants above me.  There were NO shampoos, etc - really just the bare essentials.  The pool did look very refreshing and was outside so this would be a plus with kids.  The best thing about this place was walking across the parking lot to a 50's diner, Rosie's - sit at the counter and have a hot fudge sundae.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r385699502-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385699502</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>When there is a reserved parking spot for police go to the next hotel</t>
+  </si>
+  <si>
+    <t>Since there weren't many vacancies near the airport we went with price ($89.00) and reserved sight unseen.  We stayed in a Motel 6 in Hot Springs and it was clean and new ($69.00). This one was clean but old and not maintained well.  The door to our room was damaged and you could see daylight between the door and the jamb.  The room itself was clean but very sparse and less than basic. Many of the guests were loud and we could hear it all through our damaged door.  There was a parking place for the police and a security guard on duty in the lobby.  One must wonder about that.  Not all bad, the desk clerk was very friendly and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Since there weren't many vacancies near the airport we went with price ($89.00) and reserved sight unseen.  We stayed in a Motel 6 in Hot Springs and it was clean and new ($69.00). This one was clean but old and not maintained well.  The door to our room was damaged and you could see daylight between the door and the jamb.  The room itself was clean but very sparse and less than basic. Many of the guests were loud and we could hear it all through our damaged door.  There was a parking place for the police and a security guard on duty in the lobby.  One must wonder about that.  Not all bad, the desk clerk was very friendly and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r374212419-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>374212419</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>The best Motel 6 I've ever stayed at.</t>
+  </si>
+  <si>
+    <t>After driving for 18 hrs, and having to leave a previous hotel, not a motel 6, in Col Spgs because of bed bugs. (I always look before unpacking). This was a wonderful overnight stay. Staff was very nice, even though they were very busy. The rooms were well cared for, and clean. Linens in great shape, and NO BED BUGS. This is the best Motel 6 I've ever stayed in, and I've stayed in many. Some have been pretty shabby, but I've never found a bed bug in any of them. FYI Motel 6. I love your modern motels. They are great with the laminate floors, and modern fixtures. Keep it up. I always look for your remodeled motels when I travel. I almost always stay in a Motel 6 if I can.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>After driving for 18 hrs, and having to leave a previous hotel, not a motel 6, in Col Spgs because of bed bugs. (I always look before unpacking). This was a wonderful overnight stay. Staff was very nice, even though they were very busy. The rooms were well cared for, and clean. Linens in great shape, and NO BED BUGS. This is the best Motel 6 I've ever stayed in, and I've stayed in many. Some have been pretty shabby, but I've never found a bed bug in any of them. FYI Motel 6. I love your modern motels. They are great with the laminate floors, and modern fixtures. Keep it up. I always look for your remodeled motels when I travel. I almost always stay in a Motel 6 if I can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r372337997-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>372337997</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Another good stay</t>
+  </si>
+  <si>
+    <t>Stayed here sometime ago, thats why I booked again. Good motel, one of the "modern" Motel 6's, very clean and good place to stay. You have to pay $2.99 for WiFi, which was a bit weak , but worked OK. Only issue I had was the entrance drive off Blackhawk was badly pot-holed and needing repairing. I have left feedback with Motel 6 about it, so let's see if it gets repaired.I had Room 230, nice room of the back of the motel, so you can leave the curtains open all the time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r333033791-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>333033791</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>STAFF MEMBERS STEALS YOUR BELONGINGS!!</t>
+  </si>
+  <si>
+    <t>Five min after check out, I informed staff I will pick up my backpack after my meeting. Housekeeping hadn't clean the room yet but after 3 calls, the manager finally called saying they don't have it. Staff was the only ones in there shortly after I left. Why did it take 3 days to return my calls and demanding to speak with a manager. I informed Headquarters of this as well, very sad case!! LOSERS!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver East - Aurora, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Five min after check out, I informed staff I will pick up my backpack after my meeting. Housekeeping hadn't clean the room yet but after 3 calls, the manager finally called saying they don't have it. Staff was the only ones in there shortly after I left. Why did it take 3 days to return my calls and demanding to speak with a manager. I informed Headquarters of this as well, very sad case!! LOSERS!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r318368316-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>318368316</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Not Bad for A Night</t>
+  </si>
+  <si>
+    <t>I arrived two hours early and was told there was no option for an early check in. When I finally was able to get a room, the room appeared clean and looked modern. The bathroom was nice but there was no shampoo or conditioner. The bed was uncomfortable. The entire motel reeked of marijuana, and I could hear a lot of noise from the hallway in my room, especially between 3am-5am.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r315853945-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>315853945</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Clean, excellent service, and inexpensive</t>
+  </si>
+  <si>
+    <t>First plus was inexpensive. The service personnel were professional, friendly,  and knowledgeable. The room was clean, and the beds were very good. An excellent 50's diner (Rosie's) is on the adjoining lot. Easy access to I-225. A safe and secure place to stay.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r274189074-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274189074</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Hotal front desk staff needs to be trained.</t>
+  </si>
+  <si>
+    <t>Made a reservation a week in advanced and when I went to check in they said I did not have a reservation.  So, they charged me twice for the room I paid for.  Now its been a hell trying to get someone to help me get my refund back.  This is the second time they have messed up my reservation and I was charged extra money.  This place is terrible and I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver East - Aurora, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Made a reservation a week in advanced and when I went to check in they said I did not have a reservation.  So, they charged me twice for the room I paid for.  Now its been a hell trying to get someone to help me get my refund back.  This is the second time they have messed up my reservation and I was charged extra money.  This place is terrible and I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r270704512-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>270704512</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Family and I booked room at this hotel. Outside of hotel was very interesting it was alot of activity. Instead of leaving my wife decided to go in just to check everything out but it still seemed to not be any better. The front desk staff are very rude, I wouldnt stay here if it was the last hotel in Aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver East - Aurora, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Family and I booked room at this hotel. Outside of hotel was very interesting it was alot of activity. Instead of leaving my wife decided to go in just to check everything out but it still seemed to not be any better. The front desk staff are very rude, I wouldnt stay here if it was the last hotel in Aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r256424205-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>256424205</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>DONT WASTE YOUR MONEY</t>
+  </si>
+  <si>
+    <t>It cost $500 to stay seven days here and it was a very inconvenient stay. The room, although clean and nicely decorated, lacked amenities. No microwave, no mini fridge, no coffee pot. And WiFi cost $3.50 a day. And the guy working second shift at the front desk was horrible. Take your money elsewhere.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r230257936-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>230257936</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Decent Room</t>
+  </si>
+  <si>
+    <t>Room was clean, bed was pretty comfy.  Basic amenities, but good room for the price.  The one thing that I didn't like was the fact that there was no shampoo provided with the room.  I've never stayed in a chain hotel that didn't have shampoo.  Very disappointed in that.  Everything else was an average Motel 6.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r230145119-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>230145119</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>Adequate room. There was a lot of activities going on at night in the hallway and parking lot that kept waking us up. Pounding noises coming from the room above us our last night. Sounded like someone was jumping off the bed, We will not stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver East - Aurora, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Adequate room. There was a lot of activities going on at night in the hallway and parking lot that kept waking us up. Pounding noises coming from the room above us our last night. Sounded like someone was jumping off the bed, We will not stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r223499314-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223499314</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Barking dogs and stench of cigarette smok</t>
+  </si>
+  <si>
+    <t>Room itself was adequate but was kept awake by the sounds of dogs barking and howling coming from the next room during the entire early morning hours.  Also from the next room came the stench of cigarette smoke seeping through the bottom of the adjoining door.  Desk clerk could care less when approached, contacted head office and they thanked me for my concern.Very doubtful if i will throw my money away on this motel chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver East - Aurora, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Room itself was adequate but was kept awake by the sounds of dogs barking and howling coming from the next room during the entire early morning hours.  Also from the next room came the stench of cigarette smoke seeping through the bottom of the adjoining door.  Desk clerk could care less when approached, contacted head office and they thanked me for my concern.Very doubtful if i will throw my money away on this motel chain again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r222424805-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>222424805</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Very Clean. No off odors anywhere in the motel. Beds comfortable. Bathrooms modern. Pet friendly if that matters. Attractive outdoor pool. I stayed 2 nights and would go back. Good value for the money. Very convenient to hi way 225</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r217424338-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>217424338</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Staff is confused</t>
+  </si>
+  <si>
+    <t>We came to Colorado from Indiana. We wanted a decent hotel til we acquired an apartment. We chose the side of town we wanted and picked Motel 6 for the brands excellent reputation. However, this property falls far below the Motel 6 guest standard. The pool is not clean, the ice machines are all down, the front desk staff is sloppy and unprofessional. If we had another option at this point, we would leave but we are stuck. This is a horrible experience.......to be continued!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r210793662-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>210793662</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Superior Customer Service</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great,...I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great, very comfortable. This is a great location, just a few blocks from where my son lives, I will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great,...I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great, very comfortable. This is a great location, just a few blocks from where my son lives, I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r173091483-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>173091483</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE! MUST READ!</t>
+  </si>
+  <si>
+    <t>HORRIBLE EXPERIENCE; NEVER AGAIN! NEVER STAY AT THIS LOCATION; MUST READ!!! LONG BUT WORTH KNOWING!!! My boyfriend and I recently stayed at Motel 6 off of E Iliff Ave in Aurora, CO on July 19 - July 21. We both got bit by BED BUGS. The bite didn't show up right away and I barely realized I got bit on Saturday night. I showed my boyfriend the bite and he insisted that it was just a mosquito bite as I insisted it was not. Of course I was right! At 4 am on Sunday I woke up and was scratching my leg, my boyfriend then asked me if I was itching because he was scratching his arm. He turned on the lights and sure enough we had bites all over. He had them mostly on his arms and one on his ankle. I had bites on my wrists, my finger, my leg and my foot and toe. It was HORRIBLE! We went to the front desk right away and the front desk lady filed an incident report. I waited a week to let the general Manager Kevin contact me, which never happened. Out of courtesy and customer service he should have called to apologize and get down to a solution for this problem. After the week had past I decided to follow up on my own and called the motel, of course Kevin was not in. I left a message....HORRIBLE EXPERIENCE; NEVER AGAIN! NEVER STAY AT THIS LOCATION; MUST READ!!! LONG BUT WORTH KNOWING!!! My boyfriend and I recently stayed at Motel 6 off of E Iliff Ave in Aurora, CO on July 19 - July 21. We both got bit by BED BUGS. The bite didn't show up right away and I barely realized I got bit on Saturday night. I showed my boyfriend the bite and he insisted that it was just a mosquito bite as I insisted it was not. Of course I was right! At 4 am on Sunday I woke up and was scratching my leg, my boyfriend then asked me if I was itching because he was scratching his arm. He turned on the lights and sure enough we had bites all over. He had them mostly on his arms and one on his ankle. I had bites on my wrists, my finger, my leg and my foot and toe. It was HORRIBLE! We went to the front desk right away and the front desk lady filed an incident report. I waited a week to let the general Manager Kevin contact me, which never happened. Out of courtesy and customer service he should have called to apologize and get down to a solution for this problem. After the week had past I decided to follow up on my own and called the motel, of course Kevin was not in. I left a message. I called back two more times and left two more messages, no response. I was in the area and stopped in and left the fourth message, and who would've known, NO RESPONSE! I went in a second time asked for corporates number and left the 5th message. Mind you, all 5 messages had my name and number on it. Magically if not a couple hours later the general manager Kevin decides to call me back, funny how that happens after hearing I'm going to be calling corporate. In his message he stated his name and that he was the gm and the first number he had down for me the area code was 972 not 970. So what I don't understand is how do you not have the correct number after 5 messages plus the incident report with my number on that as well which I saw to make sure my info was correct, yeah I wasn't buying it. I decided to call corporate as planned and corporate guest relations tried contacting Kevin while I was on hold, coincidentally Kevin was leaving the office and couldn't speak at the time and had to call guest relations back. Today, a month later, guest relations call me back and tell me that I will not be getting a refund and that the terminex (or whatever the heck that company is called) didn't find any bed bugs that Kevin thinks we got it from somewhere else. [--]! We didn't stay anywhere else that weekend and didn't get bit before we went there and haven't been bit since leaving there. All they could offer me was a free night stay at a different location. I declined,  I will not stay at any Motel 6 again! Poor management at this location and obviously very poor costumer service on the GM's part due to avoiding the situation. I read in previous reviews and they complained about bed bugs as well, obviously they are there Kevin, bleepin idiot! Horrible experience and I do not recommend staying there whatsoever. Sleep in your car if you have to! I even hate how I have to put one star on this damn review, it should be 0.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE EXPERIENCE; NEVER AGAIN! NEVER STAY AT THIS LOCATION; MUST READ!!! LONG BUT WORTH KNOWING!!! My boyfriend and I recently stayed at Motel 6 off of E Iliff Ave in Aurora, CO on July 19 - July 21. We both got bit by BED BUGS. The bite didn't show up right away and I barely realized I got bit on Saturday night. I showed my boyfriend the bite and he insisted that it was just a mosquito bite as I insisted it was not. Of course I was right! At 4 am on Sunday I woke up and was scratching my leg, my boyfriend then asked me if I was itching because he was scratching his arm. He turned on the lights and sure enough we had bites all over. He had them mostly on his arms and one on his ankle. I had bites on my wrists, my finger, my leg and my foot and toe. It was HORRIBLE! We went to the front desk right away and the front desk lady filed an incident report. I waited a week to let the general Manager Kevin contact me, which never happened. Out of courtesy and customer service he should have called to apologize and get down to a solution for this problem. After the week had past I decided to follow up on my own and called the motel, of course Kevin was not in. I left a message....HORRIBLE EXPERIENCE; NEVER AGAIN! NEVER STAY AT THIS LOCATION; MUST READ!!! LONG BUT WORTH KNOWING!!! My boyfriend and I recently stayed at Motel 6 off of E Iliff Ave in Aurora, CO on July 19 - July 21. We both got bit by BED BUGS. The bite didn't show up right away and I barely realized I got bit on Saturday night. I showed my boyfriend the bite and he insisted that it was just a mosquito bite as I insisted it was not. Of course I was right! At 4 am on Sunday I woke up and was scratching my leg, my boyfriend then asked me if I was itching because he was scratching his arm. He turned on the lights and sure enough we had bites all over. He had them mostly on his arms and one on his ankle. I had bites on my wrists, my finger, my leg and my foot and toe. It was HORRIBLE! We went to the front desk right away and the front desk lady filed an incident report. I waited a week to let the general Manager Kevin contact me, which never happened. Out of courtesy and customer service he should have called to apologize and get down to a solution for this problem. After the week had past I decided to follow up on my own and called the motel, of course Kevin was not in. I left a message. I called back two more times and left two more messages, no response. I was in the area and stopped in and left the fourth message, and who would've known, NO RESPONSE! I went in a second time asked for corporates number and left the 5th message. Mind you, all 5 messages had my name and number on it. Magically if not a couple hours later the general manager Kevin decides to call me back, funny how that happens after hearing I'm going to be calling corporate. In his message he stated his name and that he was the gm and the first number he had down for me the area code was 972 not 970. So what I don't understand is how do you not have the correct number after 5 messages plus the incident report with my number on that as well which I saw to make sure my info was correct, yeah I wasn't buying it. I decided to call corporate as planned and corporate guest relations tried contacting Kevin while I was on hold, coincidentally Kevin was leaving the office and couldn't speak at the time and had to call guest relations back. Today, a month later, guest relations call me back and tell me that I will not be getting a refund and that the terminex (or whatever the heck that company is called) didn't find any bed bugs that Kevin thinks we got it from somewhere else. [--]! We didn't stay anywhere else that weekend and didn't get bit before we went there and haven't been bit since leaving there. All they could offer me was a free night stay at a different location. I declined,  I will not stay at any Motel 6 again! Poor management at this location and obviously very poor costumer service on the GM's part due to avoiding the situation. I read in previous reviews and they complained about bed bugs as well, obviously they are there Kevin, bleepin idiot! Horrible experience and I do not recommend staying there whatsoever. Sleep in your car if you have to! I even hate how I have to put one star on this damn review, it should be 0.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r170900828-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>170900828</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>nice room decent value</t>
+  </si>
+  <si>
+    <t>The room was nice looking and clean for the most part but there was hair in the bathtub. There was a small pool and the wifi wasn't free. It would've been a really peaceful hotel except around 5:30 in the morning some other guest was screaming at the desk people and my room was close to the lobby. I personally didn't have any problems with the front desk, they were helpful and nice to me. There is also a nice little diner right across from the hotel so I didn't have to go far to get food.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r165499450-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>165499450</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>never again is right</t>
+  </si>
+  <si>
+    <t>We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get...We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get what you paid for which is not much!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get...We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get what you paid for which is not much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r141430522-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>141430522</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent bargain</t>
+  </si>
+  <si>
+    <t>Very clean property, restaurants nearby and easy access to I-225. The rooms are bright, adequately furnished, a good channel selection on tv. Firm mattress. Only down side is the room doors slam when closed which tends to echo down the halls. Not a good thing when you're trying to get some sleep. Wifi is at an additional charge but works very well. Will definitely stay again!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r141193114-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>141193114</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>AVOID MOTEL 6 on Iliff in Aurora, CO</t>
+  </si>
+  <si>
+    <t>RECOMMEND YOU READ before making a reservation:  
+FIRST NIGHT:  I reserved a nonsmoking room in a quiet part of the building in advance.  I arrived during the evening and checked in.  I discovered the bathroom wasn't clean.  When I pulled the bed covers, I found a huge splotch of dried blood on the bedsheet.  The night clerk shoved new sheets at me.  I tried to clean the bathroom before going to bed.  
+SECOND NIGHT:  I returned to the motel during the evening and discovered they'd assigned my room to someone else -- but they didn't reassign me to another room.  Where do I sleep tonight?  They finally assigned me another so-called nonsmoking room -- but I noticed the smell of smoke in my room and heavy smoke from next door where someone was smoking and coughing.  I'm allergic to cigarette smoke.  The clerk went upstairs to verify.  He said, yes, somebody was smoking in the nonsmoking area.  But he said he had no other available rooms.  I asked if there was a supervisor or guard to stop the smoker in the nonsmoking area.  The clerk said the supervisor and guard only work during the week.  It wasn't until I threatened to call the police that he finally assigned me another room (in a noisy part of the building).  
+CHECKOUT:  Nobody had any interest in my two nights of nightmarish experience.  It seemed they're used to such complaints.  The final insult...RECOMMEND YOU READ before making a reservation:  FIRST NIGHT:  I reserved a nonsmoking room in a quiet part of the building in advance.  I arrived during the evening and checked in.  I discovered the bathroom wasn't clean.  When I pulled the bed covers, I found a huge splotch of dried blood on the bedsheet.  The night clerk shoved new sheets at me.  I tried to clean the bathroom before going to bed.  SECOND NIGHT:  I returned to the motel during the evening and discovered they'd assigned my room to someone else -- but they didn't reassign me to another room.  Where do I sleep tonight?  They finally assigned me another so-called nonsmoking room -- but I noticed the smell of smoke in my room and heavy smoke from next door where someone was smoking and coughing.  I'm allergic to cigarette smoke.  The clerk went upstairs to verify.  He said, yes, somebody was smoking in the nonsmoking area.  But he said he had no other available rooms.  I asked if there was a supervisor or guard to stop the smoker in the nonsmoking area.  The clerk said the supervisor and guard only work during the week.  It wasn't until I threatened to call the police that he finally assigned me another room (in a noisy part of the building).  CHECKOUT:  Nobody had any interest in my two nights of nightmarish experience.  It seemed they're used to such complaints.  The final insult was when they hassled me about a missing little wastebasket in the room.THERE ARE OTHER very nice motels for the same price on that street.  DO NOT make a reservation at Motel 6 on Iliff in Aurora, CO.  Or bring your own bedsheets, wastebasket and mask to protect you from smoke in the nonsmoking rooms.  All this really happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>RECOMMEND YOU READ before making a reservation:  
+FIRST NIGHT:  I reserved a nonsmoking room in a quiet part of the building in advance.  I arrived during the evening and checked in.  I discovered the bathroom wasn't clean.  When I pulled the bed covers, I found a huge splotch of dried blood on the bedsheet.  The night clerk shoved new sheets at me.  I tried to clean the bathroom before going to bed.  
+SECOND NIGHT:  I returned to the motel during the evening and discovered they'd assigned my room to someone else -- but they didn't reassign me to another room.  Where do I sleep tonight?  They finally assigned me another so-called nonsmoking room -- but I noticed the smell of smoke in my room and heavy smoke from next door where someone was smoking and coughing.  I'm allergic to cigarette smoke.  The clerk went upstairs to verify.  He said, yes, somebody was smoking in the nonsmoking area.  But he said he had no other available rooms.  I asked if there was a supervisor or guard to stop the smoker in the nonsmoking area.  The clerk said the supervisor and guard only work during the week.  It wasn't until I threatened to call the police that he finally assigned me another room (in a noisy part of the building).  
+CHECKOUT:  Nobody had any interest in my two nights of nightmarish experience.  It seemed they're used to such complaints.  The final insult...RECOMMEND YOU READ before making a reservation:  FIRST NIGHT:  I reserved a nonsmoking room in a quiet part of the building in advance.  I arrived during the evening and checked in.  I discovered the bathroom wasn't clean.  When I pulled the bed covers, I found a huge splotch of dried blood on the bedsheet.  The night clerk shoved new sheets at me.  I tried to clean the bathroom before going to bed.  SECOND NIGHT:  I returned to the motel during the evening and discovered they'd assigned my room to someone else -- but they didn't reassign me to another room.  Where do I sleep tonight?  They finally assigned me another so-called nonsmoking room -- but I noticed the smell of smoke in my room and heavy smoke from next door where someone was smoking and coughing.  I'm allergic to cigarette smoke.  The clerk went upstairs to verify.  He said, yes, somebody was smoking in the nonsmoking area.  But he said he had no other available rooms.  I asked if there was a supervisor or guard to stop the smoker in the nonsmoking area.  The clerk said the supervisor and guard only work during the week.  It wasn't until I threatened to call the police that he finally assigned me another room (in a noisy part of the building).  CHECKOUT:  Nobody had any interest in my two nights of nightmarish experience.  It seemed they're used to such complaints.  The final insult was when they hassled me about a missing little wastebasket in the room.THERE ARE OTHER very nice motels for the same price on that street.  DO NOT make a reservation at Motel 6 on Iliff in Aurora, CO.  Or bring your own bedsheets, wastebasket and mask to protect you from smoke in the nonsmoking rooms.  All this really happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r140729559-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>140729559</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Ok place to stay</t>
+  </si>
+  <si>
+    <t>Rooms were clean, staff were pleasant. The only problem we had was the air conditioner didn't work in our room very well, the window had no screen so we could open it to cool the room off, the window was broken, the beds are the most comfortable, and the hallway stunk. It is a pet friendly hotel which is really awesome the only problem is the pet owners need to take care of the animal and clean up after them in the rooms. The hallway smelled really bad from pet odor. The ice machines didn't work. But otherwise it was an ok place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r133235757-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>133235757</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Hair Everywhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your passing thru and need a place to sleep 1 night for the price its ok but that's all you want to do. The room is the size of a college dorm however very modern. The place appears to be clean but you will find hair on the towels, on the sheets,comforter,bathroom counters basically this place is full of hair..that's because its pet friendly so there's been dogs&amp;cats in every room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r130676192-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>130676192</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Very good budget Motel</t>
+  </si>
+  <si>
+    <t>As usual booked in advance and got the discount.Stayed here while visiting freinds in Aurora. Fast check-in only took 5 minutes.Very nice motel, it's been re-modelled and brand new inside. Very good sized room on the 2nd floor (214) and no external walkway which means you are not overlooked by anyone and can have the drapes open. Very modern functional styling. Nice sized bathroom. Good nights sleep. Room was well serviced on the second day, no complaints there. Rosies 1950's diner is right by it, so bring your pony tails and blue suede shoes. All in all very nice modern motel, would stop here again.Photos to follow.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r129435275-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>129435275</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Best Denver Discount!</t>
+  </si>
+  <si>
+    <t>This little gem in the Rockies is close to the Airport, good food and the major highways!  The motel has been remodeled fairly recently and was fresh and clean looking!  I loved the lime green trim and linen decor.  The bathroom was large and well lit!  The beds were very comfortable. For a no amenities budget motel you get the feeling you are in a much fancier place.  I thought the staff was efficient and very pleasant to work with.  Request were handled with a smile!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r116267569-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>116267569</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Clean, helpful, efficient.</t>
+  </si>
+  <si>
+    <t>We always stayed at another chain but had a bad experience en route; Motel 6 was our only option in this part of the city because it was pet-friendly. It has caused us to switch over to this company entirely. The people at the desk couldn't have been more helpful. They went beyond out of their way. We are so happy to know about Motel 6's amenities and will be frequent guests in other cities.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r115942006-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>115942006</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Indoor corridor!</t>
+  </si>
+  <si>
+    <t>I am used to the motel 6 with exterior access! This one is not like your typical Motel 6! It was completely remodeled and clean for the same price as other Motel 6's. Pets stay free! Wi-fi is 2.95 per day and not very speedy. There are 2 restaurants out front, one being Applebee's. Less than a mile away there is a Mall, Outback, Carrabba's, and Joe's Crab Shack. Over all very cheap and worth every cent!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r108387281-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>108387281</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>Brand New, Friendly, Will Recommend and Visit Again</t>
+  </si>
+  <si>
+    <t>I was skeptical of staying in this hotels due to previous reviews, but I always like to judge for myself. I also believe that usually only those who are disappointed write reviews. The staff at the hotel was extremely friendly. The rooms were remodeled.. first time I slept all night through in a long time. I would definitely stay at this hotel again. One thing I always remember is that I usually go to a hotel to unwind and sleep. At the Motel 6 in Aurora, I did just that.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r10150306-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>10150306</t>
+  </si>
+  <si>
+    <t>10/19/2007</t>
+  </si>
+  <si>
+    <t>Newer Motel 6</t>
+  </si>
+  <si>
+    <t>I have always appreciated the value of Motel 6's.  This one, just off East Iliff Avenue in Aurora, was a newer model with interior entrances, which are my favorite kinds.  Motels are notoriously expensive for not providing much... and that is why I'm a fan of Motel 6, they give you what you need and you don't have to pay ridiculous prices!   This one was a decent neighborhood, just off I-25, with several different popular restaurants nearby.  I find the beds/mattresses to be updated enough that they are quite comfortable... and these interior entrance buildings have nice bathrooms with a tub!   So I chose above average because of the value and type of building.  Don't forget the free coffee in the morning... and I can buy a big. much better breakfast at a restaurant for the difference in price with an expensive motel that give you a "free breakfast".MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I have always appreciated the value of Motel 6's.  This one, just off East Iliff Avenue in Aurora, was a newer model with interior entrances, which are my favorite kinds.  Motels are notoriously expensive for not providing much... and that is why I'm a fan of Motel 6, they give you what you need and you don't have to pay ridiculous prices!   This one was a decent neighborhood, just off I-25, with several different popular restaurants nearby.  I find the beds/mattresses to be updated enough that they are quite comfortable... and these interior entrance buildings have nice bathrooms with a tub!   So I chose above average because of the value and type of building.  Don't forget the free coffee in the morning... and I can buy a big. much better breakfast at a restaurant for the difference in price with an expensive motel that give you a "free breakfast".More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1456,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1488,2943 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X26" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>302</v>
+      </c>
+      <c r="J40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s">
+        <v>305</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>323</v>
+      </c>
+      <c r="J44" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s">
+        <v>326</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>327</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>333</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>340</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K47" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s">
+        <v>344</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_200.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_200.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r611728601-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>119936</t>
+  </si>
+  <si>
+    <t>611728601</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>long stay</t>
+  </si>
+  <si>
+    <t>I have been staying here since Jan of this year ,the place is very clean the housekeepers do a outstanding job.The front desk staff are always very friendly and helpful  to all guest that are checking in or out.There is security on site at night and they are very efficient in there job if your here to cause trouble don't bring it to this hotel.I feel safe here it's in a good location close to just about anywhere you want to go.The management team is outstanding .yes there are people who don't like to follow rules and try and smoke pot in there rooms but that is everywhere out here.I also have a dog and the housekeepers have no trouble coming in to clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I have been staying here since Jan of this year ,the place is very clean the housekeepers do a outstanding job.The front desk staff are always very friendly and helpful  to all guest that are checking in or out.There is security on site at night and they are very efficient in there job if your here to cause trouble don't bring it to this hotel.I feel safe here it's in a good location close to just about anywhere you want to go.The management team is outstanding .yes there are people who don't like to follow rules and try and smoke pot in there rooms but that is everywhere out here.I also have a dog and the housekeepers have no trouble coming in to clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r595972630-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>595972630</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>Motel was not very nice. No idea why motel 6 would put there name on this place. Will not stay here again. Needs remodeled. You get what you pay for I guess. Very noisy. Did not get much sleep the 2 nights we were there. Only nice thing was Rosie's dinner close by....</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r591746552-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>591746552</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>DO NOT GO TO!!!</t>
+  </si>
+  <si>
+    <t>This hotel will jack up the price of a GUARANTEED room rate. Then you get nothing but argument about it. Took a district manager to do ANYTHING. Place smells just as dirty as it is. BUYER BEWARE,just find a better place.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r586442736-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>119936</t>
-  </si>
-  <si>
     <t>586442736</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>Check in was a breeze even though I checked in 10 minutes before midnight. The front desk guy was very professional and efficient. Lobby smelled good at check in and was clean which left a good first impression. There was night time security. Rooms were small, but the beds were soft and comfy. No housekeeping because I had dogs with me, until I specifically stated I wanted my room cleaned, and we agreed to leave for an hour. Problems with room were tended to immediately. Pros: Soft beds, lots of parking, pets stay free, kids stay free, outdoor pool, night time security, lots of channels on tv, problems rectified in a timely manner, close to interstate, and yummy restaurants close by.Cons: Hall smell of Marijuanna, weekly rates are ridiculous for a room without a MICROWAVE or FRIDGE! Elevators were broke 75% of the time and we were on the 3rd floor. Vending machines were broke 25% of the time. No housekeeping if you have pets. People selling drugs outside the hotel front doors (My 15 year old was offered MJ). Fire department down the street so you hear all the calls (this came in handy for the alcoholic who passed out, outside the front doors and needed EMS). No breakfast :-(   MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -201,9 +258,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team  at Motel 6 Denver East - Aurora, responded to this reviewResponded March 12, 2018</t>
   </si>
   <si>
@@ -234,24 +288,72 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r518484465-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>518484465</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>awful place to stay.</t>
+  </si>
+  <si>
+    <t>stayed 8-24 to 8-27.   3rd floor room was supposed to be non-smoking but there were multiple cigarette burns on the blinds, windowsill, and bathroom counter top.  The room smelled terrible.  Numerous times you could smell pot in the hallways on the 3rd floor all hours of the day. People arguing at night over money in the next room.    Looked like hookers and pimps hanging out in front of the hotel also.  The best part was the pool.  It was so full of algae it was green.I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver East - Aurora, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>stayed 8-24 to 8-27.   3rd floor room was supposed to be non-smoking but there were multiple cigarette burns on the blinds, windowsill, and bathroom counter top.  The room smelled terrible.  Numerous times you could smell pot in the hallways on the 3rd floor all hours of the day. People arguing at night over money in the next room.    Looked like hookers and pimps hanging out in front of the hotel also.  The best part was the pool.  It was so full of algae it was green.I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r513898030-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>513898030</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sketchy </t>
+  </si>
+  <si>
+    <t>The whole night we could hear doors slamming and people talking. The walls are extremely thin. Very small room, small bed. Smells weird, sketchy people stay there. I do not recommend. I honestly was scared someone would come into our room while we slept. Front desk was nice but was very slow checking us in. Even let a few people cut in front of us which seemed every unfair. Wifi is not included. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver East - Aurora, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>The whole night we could hear doors slamming and people talking. The walls are extremely thin. Very small room, small bed. Smells weird, sketchy people stay there. I do not recommend. I honestly was scared someone would come into our room while we slept. Front desk was nice but was very slow checking us in. Even let a few people cut in front of us which seemed every unfair. Wifi is not included. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r513664046-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>513664046</t>
   </si>
   <si>
-    <t>08/16/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Overnight stay </t>
   </si>
   <si>
     <t xml:space="preserve">For the price you should not ask for more. At least is clean. They don't have the complementary things that other motels offer but look in the area that you are staying. Improvements yes they can but in the society that everything revolves around money they probably would race their prices too. </t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -291,6 +393,54 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r493179533-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>493179533</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>OMG.....  Sketchyest hotel ever</t>
+  </si>
+  <si>
+    <t>I thought I was staying three nights, but I barely made it through one. Filthy! People paying for 1 night at a time with their panhandled cash. Loud) I just don't know what else to say to earn you?! I have low expectations, but this didn't meet them.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand ExperienceTeam at Motel 6 Denver East - Aurora, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>I thought I was staying three nights, but I barely made it through one. Filthy! People paying for 1 night at a time with their panhandled cash. Loud) I just don't know what else to say to earn you?! I have low expectations, but this didn't meet them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r467578714-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>467578714</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightmare </t>
+  </si>
+  <si>
+    <t>Do not stay here no matter how cheap it is!!!!!!This hotel does not offer refunds even clearly after you tell themit's not suitable or safe to stay in. Fights in the hallway horrible smell ,not clean at all ,not to mention the beds need to be updated including windows and toilets do not stay here....sleep in your car   The corporate office don't even bother complaining they believe their staff who makes false reports on customers to cover their rudeness. Oh yeah someone else posted where is the shampoo ????right isn't that like a law to have in a hotel room at least soap you would think.  I would love for the owner of Motel 6 to see this and contact me. I am a very honest person do not stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Denver East - Aurora, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Do not stay here no matter how cheap it is!!!!!!This hotel does not offer refunds even clearly after you tell themit's not suitable or safe to stay in. Fights in the hallway horrible smell ,not clean at all ,not to mention the beds need to be updated including windows and toilets do not stay here....sleep in your car   The corporate office don't even bother complaining they believe their staff who makes false reports on customers to cover their rudeness. Oh yeah someone else posted where is the shampoo ????right isn't that like a law to have in a hotel room at least soap you would think.  I would love for the owner of Motel 6 to see this and contact me. I am a very honest person do not stay here. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r461300819-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -354,6 +504,36 @@
     <t>Great Location, Great Price, Great Service!!I have traveled across our great country (the USA) and around our huge world for over 30 years.As I travel, I am always looking for the best deals in the most affordable motels.I must say that I had one of my best experiences at this Motel 6 (Motel 6 Denver East Aurora, CO, 14031 East Illiff Avenue, Aurora, CO 80014).I arrived on January 28, 2017 and checked out on January 31, 2017.Both my check-in and check-out went real well, big thanks to very kind front desk staffs.The front desk staffs, both day and night shift staffs, were very nice all the time.My room was very, very clean.For such an expensive neighborhood, I was surprised of this particular motel's great price.For such an affordable price, I was surprised of this particular motel's great service.If you stay at this Motel 6, it might also change your view Motel 6.Not all Motel 6’s (and not all affordable motels) are the same.-- by Changyon Pak (“Steven” Pak); Born in Seoul, Korea; Raised and Educated in State of Iowa; Proud Resident of State of Missouri; Biggest Fan of the Chicago Bulls; World Traveler for Over 30 Years; Volunteer &amp; Founder of “Lights of Hopes”More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r452845212-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452845212</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>SCARY.....</t>
+  </si>
+  <si>
+    <t>Go somewhere else, this was actually pretty scary. Cops around, smelled like MJ in the hallways, needed a pass to park, way over priced for this area. If you want something like this go up on Colfax Ave and do it right....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r452440634-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452440634</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Fun in the city</t>
+  </si>
+  <si>
+    <t>Me and my friends recently stayed in this motel and the staff here were super friendly. The motel it self was clean and smelled very good whoever runs this establishment is doing a great job. The room was nice the bathroom was very clean and stocked well. The beds were comfy. I would recommend this hotel to anyone looking for a great room with a good rate!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451946881-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -369,9 +549,6 @@
     <t>My stay was perfect. The manager is awesome and very professional I have been staying at this location for awhile and this stay was great. I know they are under new management and you can tell so clean</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451321620-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -414,6 +591,39 @@
     <t>The Staff was amazing, the rooms were clean and well priced. I Was a little hesitant due to the location, but i was pleasantly surprised. I Would definitely recommend this motel to friends and family. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r451268314-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451268314</t>
+  </si>
+  <si>
+    <t>Very clean and friendly</t>
+  </si>
+  <si>
+    <t>I recently stayed at the motel 6 in aurora co. Was in town to visit family for the holiday. The hotel was very convenient to shops and restaurants as well as our family. Motel was very clean and staff very friendly. I usually dont write reviews but that motel deserves kudos for doing things right. I will return!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at the motel 6 in aurora co. Was in town to visit family for the holiday. The hotel was very convenient to shops and restaurants as well as our family. Motel was very clean and staff very friendly. I usually dont write reviews but that motel deserves kudos for doing things right. I will return!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r428929748-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>428929748</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Probably will not return</t>
+  </si>
+  <si>
+    <t>Location is somewhat central. Rooms are very small. Hotel is weathered. Asked housekeeping for 2 extra pillows and was told they did not have them. Just one and I had to go pick it up myself. Selected hotel because it was pet friendly. However, the curbside and parking were very dirty. Were on first floor and above us there was lots of noise during the night.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r425730093-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -429,9 +639,6 @@
     <t xml:space="preserve">This hotel was amazing the staff is friendly and the rooms are clean. They are under new management and it is obvious that the manager iOS involved in the daily operations of the hotel I have stayed here years ago and it was awful but now it is amazing </t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r423482300-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -471,6 +678,36 @@
     <t>We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both...We stayed at this Motel 6 during a road trip while passing through Denver. We typically have an aversion to this chain, but it was the last leg of the trip and we were trying to stretch out last few dollars, plus they advertised being renewed and modern. As usual, we were disappointed with just about everything. The hotel pool, a swampy green looking enclosure, is located right next to the entrance. Not a great first impression. The staff greeted us quickly enough, but we were confused and a bit hassled to procure our IDs for them to photocopy, as no other motel had asked for this. I guess company policy or something, just have everybody's ready for check in. Also verified no complimentary breakfast (ok, expected that) and that wifi is 2.99$ for 24 hours (also expected) but that only one device could be connected to the wifi at a time (definitely not expected). With so many places offering free wifi for EVERY device, that seemed ridiculous, but whatever, we'd go without for a night to save some cash. On arriving to the room, the first thing I noticed was how sticky the floor was. They have "modern" faux wood flooring in lieu of stained carpeting, and it felt like we were walking over dried juice puddles. The wiring for the lights took a second to figure out, as the switches need to be in opposite positions for both wall lights to be on. I guess this is another modern feature? The tv was smudged with hand prints that we had to wipe off to see clearly, and the remote had no back and also felt vaguely sticky, but perhaps I was just afraid of what could be safely touched at this point. The bathroom seemed cleaner than the bedroom, as my shoes didn't stick to the tile, but I felt that the wall switch plate was cracked when I turned the light on. With light, my eyes were drawn to the strange metal contraption sitting on the toilet tank. Ah, the toilet paper holder was broken, but they had been kind enough to leave us the broken parts should we decide to try and repair it ourselves. Very modern thinking! Beds were ... Technically beds so I guess I can't complain too much about them. All in all, my typical experience with this chain of motels, and as usual I regretted going back on my word to never come back. If you can afford it, go for somewhere else. If not, at least the AC worked ok.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r405434047-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>405434047</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Bugs!!</t>
+  </si>
+  <si>
+    <t>Room was OK until we saw 2 roaches crawling on the floor! So nasty! Would  have been a decent stay without the bugs! Maybe good for just an overnight stay but we had to stay  two nights since it was already paid for!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r402395152-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>402395152</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk people were great.  We always travel without reservation and thought we wouldn't be able to find anything.  The gave us the last room and were super helpful with extras that we needed.  If we had free breakfast we would have given 5 stars </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r398358462-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -525,6 +762,39 @@
     <t>I needed a place to sleep while traveling long distance.  It was just OK but don't think I'd stay again and definitely not for more than 1 night.  It may be cheaper than other hotels but NO breakfast so figure that into your budget.  The room was very tiny and I was on the 1st floor so sounded like elephants above me.  There were NO shampoos, etc - really just the bare essentials.  The pool did look very refreshing and was outside so this would be a plus with kids.  The best thing about this place was walking across the parking lot to a 50's diner, Rosie's - sit at the counter and have a hot fudge sundae.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r387986691-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387986691</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Major Problems During Check in W/Reservations</t>
+  </si>
+  <si>
+    <t>We made reservations 2 weeks in advance.  We arrived a day earlier than expected and called the motel to see if they could honor/change our date.  I spoke with desk cleark "Biz".During checkin "Biz" told us their credit card machine was broke so they had to manually run all credit cards.  With that, we chose to pay in cash.  Then we were charged a higher price than what was quoted at the time we made the reservation.  After some he said-she said conversation for several minutes, they just gave us our money back.  We left and stayed at a Comfort Inn.We seldom stay at Motel 6 but thought we'd give them a try.  Not!  This was their one and only.MoreShow less</t>
+  </si>
+  <si>
+    <t>We made reservations 2 weeks in advance.  We arrived a day earlier than expected and called the motel to see if they could honor/change our date.  I spoke with desk cleark "Biz".During checkin "Biz" told us their credit card machine was broke so they had to manually run all credit cards.  With that, we chose to pay in cash.  Then we were charged a higher price than what was quoted at the time we made the reservation.  After some he said-she said conversation for several minutes, they just gave us our money back.  We left and stayed at a Comfort Inn.We seldom stay at Motel 6 but thought we'd give them a try.  Not!  This was their one and only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r387519707-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387519707</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Clean good hotel located 25 minutes away from down town Denver ,had an issue  with my reservation but at the next day the manager took care of it and gave me a refund , no WiFi or free breakfast , oh and is pet friendly.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r385699502-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -579,6 +849,39 @@
     <t>Stayed here sometime ago, thats why I booked again. Good motel, one of the "modern" Motel 6's, very clean and good place to stay. You have to pay $2.99 for WiFi, which was a bit weak , but worked OK. Only issue I had was the entrance drive off Blackhawk was badly pot-holed and needing repairing. I have left feedback with Motel 6 about it, so let's see if it gets repaired.I had Room 230, nice room of the back of the motel, so you can leave the curtains open all the time.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r344642297-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>344642297</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Good budget short stay hotel.</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a concert in the area. Good location, cheap rates. The staff at this location were exceptional to deal with, always a smile and helpful. the hotel itself is in need of a good overhaul. probably explains the lower cost. If you are headed for Fiddlers green Amphitheater, this may be just for you.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r337249877-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>337249877</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t>Nice small budget roomClean bathroom.No amenities such as shampoo or soap in case you didn't pack them.free parking. Also there is a small food restaurant in the parking lot, looks like a dinner.bed was fine and staff very friendly.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r333033791-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -639,6 +942,36 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r306314021-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>306314021</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>Very clean and quiet.  Traveled with my daughter and felt secure at this hotel.  Staff very friendly and helpful.  The pool needed some tending to but overall this was the best motel 6 I've ever stayed at.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r279839250-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>279839250</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for a night! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived late and looking for a room with two beds, there were none available (that will teach us to travel without reservations). The gal  at the desk was able to give us a one bed room, we made it work. I observed her speaking with one of the long term guests and was impressed. Our room was very clean and neat. We were satisfied with the bed. We were going to make a reservation for a second night but ended up moving on due to a change in our plans. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r274189074-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -708,6 +1041,47 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r246913543-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>246913543</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>What I expected</t>
+  </si>
+  <si>
+    <t>It is a bit nicer then most motel 6. It actually has a lobby and an elevator. Rooms have been updated, and are generally clean. I never expect much from motel 6 I just want to rent a room not buy it, and they usually deliver.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r242515764-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>242515764</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Lobby had some sketchy looking people and reeked of pot</t>
+  </si>
+  <si>
+    <t>My mom and I were just looking for a place to spend the night and not pat $120 for a place to sleep. We stopped first at a La Quinta up the road and they wanted around $120 for the night and it didn't look great either. She said there was a motel 6 down the road, we found it after a bit of driving around. It was around 7 or 8 when we were looking for a hotel but it was sooo dark and there was so much traffic we couldn't figure out what was going on. It was hard to tell what kind of area we were in since it was so dark, but seemed to be a bit commercial, lots of restaurants and stores and things in the neighborhood. There was a cute diner in the parking lot and it was located right in front of Netflix offices. I went into the lobby to see if they had a room for the night, and the clerk was very friendly they had a room for $66, so I said what the hell. But I nearly walked out after walking in and seeing a bunch of homeless people in the lobby, the lobby reeked of pot smoke, just a lot of people hanging around. But really didn't want to pay $120 for a hotel room. 
+   We got the room and walked across the parking lot to eat at Rosie's...My mom and I were just looking for a place to spend the night and not pat $120 for a place to sleep. We stopped first at a La Quinta up the road and they wanted around $120 for the night and it didn't look great either. She said there was a motel 6 down the road, we found it after a bit of driving around. It was around 7 or 8 when we were looking for a hotel but it was sooo dark and there was so much traffic we couldn't figure out what was going on. It was hard to tell what kind of area we were in since it was so dark, but seemed to be a bit commercial, lots of restaurants and stores and things in the neighborhood. There was a cute diner in the parking lot and it was located right in front of Netflix offices. I went into the lobby to see if they had a room for the night, and the clerk was very friendly they had a room for $66, so I said what the hell. But I nearly walked out after walking in and seeing a bunch of homeless people in the lobby, the lobby reeked of pot smoke, just a lot of people hanging around. But really didn't want to pay $120 for a hotel room.    We got the room and walked across the parking lot to eat at Rosie's Diner which was really nice btw. The room itself was very bare, the flooring was nice, it had a desk and little closet. There was only a full size bed left so we had to share a bed and it was quite small for 2 people to share comfortably. It lacked any extra amenities, there was no shampoo, conditioner, pens, paper, do not disturb sign. The TV flickered a lot, never figured out why, just got used to it after a while. The bed was ok, rather stiff for me, but I like a soft bed. There was an ice bucket in the shower when we walked in, couldn't find a leak or anything, duno why it was there. We were sitting in the room when we heard something fall in the bathroom, went in and discovered the light fixture just fell off the wall by itself. There was only one nightstand, so i just had to put my stuff on the floor, there were some old stains on the sheets, that had been washed and set in. We kept finding black hair, all over the sheets, blankets, etc it got to be really sick. I couldn't wait for morning and get out of the room.    The only good thing was the air conditioner, it worked extremely well and the price was decent for the room. It didn't have a breakfast, you could go to Applebee's and get a pancake breakfast for $5 or something. I wouldn't stay here again, even though it was perfectly fine, car wasn't broken into or anything. I just like to feel safer, cleaner room and amenities. But it's perfectly fine and cheap if you're just traveling through and looking for a place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>My mom and I were just looking for a place to spend the night and not pat $120 for a place to sleep. We stopped first at a La Quinta up the road and they wanted around $120 for the night and it didn't look great either. She said there was a motel 6 down the road, we found it after a bit of driving around. It was around 7 or 8 when we were looking for a hotel but it was sooo dark and there was so much traffic we couldn't figure out what was going on. It was hard to tell what kind of area we were in since it was so dark, but seemed to be a bit commercial, lots of restaurants and stores and things in the neighborhood. There was a cute diner in the parking lot and it was located right in front of Netflix offices. I went into the lobby to see if they had a room for the night, and the clerk was very friendly they had a room for $66, so I said what the hell. But I nearly walked out after walking in and seeing a bunch of homeless people in the lobby, the lobby reeked of pot smoke, just a lot of people hanging around. But really didn't want to pay $120 for a hotel room. 
+   We got the room and walked across the parking lot to eat at Rosie's...My mom and I were just looking for a place to spend the night and not pat $120 for a place to sleep. We stopped first at a La Quinta up the road and they wanted around $120 for the night and it didn't look great either. She said there was a motel 6 down the road, we found it after a bit of driving around. It was around 7 or 8 when we were looking for a hotel but it was sooo dark and there was so much traffic we couldn't figure out what was going on. It was hard to tell what kind of area we were in since it was so dark, but seemed to be a bit commercial, lots of restaurants and stores and things in the neighborhood. There was a cute diner in the parking lot and it was located right in front of Netflix offices. I went into the lobby to see if they had a room for the night, and the clerk was very friendly they had a room for $66, so I said what the hell. But I nearly walked out after walking in and seeing a bunch of homeless people in the lobby, the lobby reeked of pot smoke, just a lot of people hanging around. But really didn't want to pay $120 for a hotel room.    We got the room and walked across the parking lot to eat at Rosie's Diner which was really nice btw. The room itself was very bare, the flooring was nice, it had a desk and little closet. There was only a full size bed left so we had to share a bed and it was quite small for 2 people to share comfortably. It lacked any extra amenities, there was no shampoo, conditioner, pens, paper, do not disturb sign. The TV flickered a lot, never figured out why, just got used to it after a while. The bed was ok, rather stiff for me, but I like a soft bed. There was an ice bucket in the shower when we walked in, couldn't find a leak or anything, duno why it was there. We were sitting in the room when we heard something fall in the bathroom, went in and discovered the light fixture just fell off the wall by itself. There was only one nightstand, so i just had to put my stuff on the floor, there were some old stains on the sheets, that had been washed and set in. We kept finding black hair, all over the sheets, blankets, etc it got to be really sick. I couldn't wait for morning and get out of the room.    The only good thing was the air conditioner, it worked extremely well and the price was decent for the room. It didn't have a breakfast, you could go to Applebee's and get a pancake breakfast for $5 or something. I wouldn't stay here again, even though it was perfectly fine, car wasn't broken into or anything. I just like to feel safer, cleaner room and amenities. But it's perfectly fine and cheap if you're just traveling through and looking for a place to sleep.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r230257936-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -723,9 +1097,6 @@
     <t>Room was clean, bed was pretty comfy.  Basic amenities, but good room for the price.  The one thing that I didn't like was the fact that there was no shampoo provided with the room.  I've never stayed in a chain hotel that didn't have shampoo.  Very disappointed in that.  Everything else was an average Motel 6.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r230145119-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -777,6 +1148,36 @@
     <t>Room itself was adequate but was kept awake by the sounds of dogs barking and howling coming from the next room during the entire early morning hours.  Also from the next room came the stench of cigarette smoke seeping through the bottom of the adjoining door.  Desk clerk could care less when approached, contacted head office and they thanked me for my concern.Very doubtful if i will throw my money away on this motel chain again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r223487140-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223487140</t>
+  </si>
+  <si>
+    <t>Did not even go in. Canceled my reservation</t>
+  </si>
+  <si>
+    <t>Wish there was a zero rating because that's what I would have given this motel. I've stayed at Motel 6 properties before and they've always been at least decent, low-budget motels. I pulled into the parking lot and immediately noticed several handicapped people in wheelchairs in shady areas of the parking lot sleeping, including one right by the entrance. These folks did not look in good shape. Went into the lobby and there was a pile of luggage/clothes/pillows/shag something or other stashed next to the check in station. The check in station had a pull-down security grate. The people waiting in line to check in looked like they came from the homeless shelter along with the people that were leaving. I didn't want to touch anything and left as quickly as I could and cancelled my reservation over the phone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wish there was a zero rating because that's what I would have given this motel. I've stayed at Motel 6 properties before and they've always been at least decent, low-budget motels. I pulled into the parking lot and immediately noticed several handicapped people in wheelchairs in shady areas of the parking lot sleeping, including one right by the entrance. These folks did not look in good shape. Went into the lobby and there was a pile of luggage/clothes/pillows/shag something or other stashed next to the check in station. The check in station had a pull-down security grate. The people waiting in line to check in looked like they came from the homeless shelter along with the people that were leaving. I didn't want to touch anything and left as quickly as I could and cancelled my reservation over the phone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r223247319-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223247319</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>A nice motel 6</t>
+  </si>
+  <si>
+    <t>Close to everything,right off the interstate.good value for the money.staff was friendly and helpful.lots of restaurants close by.plenty of things to do and see.red rocks,rockies,Coors brewery,Denver zoo.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r222424805-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -825,6 +1226,39 @@
     <t>I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great,...I was looking for an inexpensive place to stay while visiting my son for a week. I was pleasantly surprised. I know from experience, you get what you pay for. I am a retired hotel manager from another hotel chain and didn't know what to expect. I couldn't have asked for a better place to stay. Taja, made my reservation and assured me I would be put in a safe and quiet location in the hotel. The hotel was full every night while I was there, and it was quiet and comfortable. My son and I would arrive back after spending long days shopping and going up in the mountains, and to the casinos at Black hawk. I was always greeted with a smile by, Areil during the evening, and she was always helpful with anything I needed. The two young men working the night shift: O'Brien and Andre were always pleasant when we arrived back. I was always glad to see Taja in the morning when I was leaving, she is such a great asset to this hotel. Kevin; the general manager has a staff that makes this hotel feel like you are a welcomed guest at all times, a staff that any general manager would be proud to have in their hotel. The other hotel guests were always very pleasant and helpful with questions and opinions.  My room was very clean upon arrival and the bed was great, very comfortable. This is a great location, just a few blocks from where my son lives, I will definitely be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r207562612-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>207562612</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a great find after not being able to get into our hotel ( we were a day early ) the rooms were clean. My only 2 complaints  was we got put into a corner room my the front desk and it was pretty noisy in the middle of the night. And someone was openly carrying a side firearm . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r196588269-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>196588269</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This is one of the nicest Motel6 I have stayed at.I was working out of Aurora for about 3 months.I stayed here on weekends and some weekdays.I always walked into a spotless room.Everything in the room worked well .Everybody at the front desk was outstanding and great to talk to.I always enjoyed a great sleep while I was there.If you are looking for great value at a great rate,I recommend this Motel 6.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r173091483-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -880,6 +1314,42 @@
   </si>
   <si>
     <t>We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get...We had to stay here for a funeral so we came in and the lady at the desk was really nice, we left for dinner and came back to a whole different hotel, riding the elevator to the 2 ND floor a couple of men got on with us and one of the was so drunk he feel out of the elevator before the door closed, and then he couldn't walk with out falling over he was across the hall from us, which made me uneasy, a lot of noise all night and people trying to open our door, my mom was on the first floor pretty much the same , she heard a nock on the door and looked out the door and there was 3 cops next door, she opened the door and the cop said they were next door and that they are there a lot, none of us got much sleep,  in the morning we told the guy at the desk he seemed kind of interested and we wrote our name and number down for him, and he said he would tell the manager when he got there, we were getting ready to leave I told the lady about our stay and she gave us a gift certificate  and said o sorry we have a lot of complaints " like she heard that a lot" so I say don't stay at this motel, you really get what you paid for which is not much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r144306342-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>144306342</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Can you say filthy</t>
+  </si>
+  <si>
+    <t>Hands down the dirtiest and restless night of unrest I have ever stayed. From the minute we checked in it was a nightmare.  The expressionless Woman working the front desk that night,  didn't welcome me, gave me a room on the third floor but didn't have the key programmed so I get to go down again. We get in the room and do the normal bed check, and much to our surprise there is long dark hair in the bed and the fitted sheet is stuck to the mattress with seminal fluids. I call and let the hostess know the situation and she moves next door. Same thing in that room so we finally get a clean room and by clean I mean the beds. The towels had pubic hair woven into them. They gave me a gift certificate for a free nights stay and informed me They would like me to give them a 10 but I don't want anyone to go through what we just went through. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hands down the dirtiest and restless night of unrest I have ever stayed. From the minute we checked in it was a nightmare.  The expressionless Woman working the front desk that night,  didn't welcome me, gave me a room on the third floor but didn't have the key programmed so I get to go down again. We get in the room and do the normal bed check, and much to our surprise there is long dark hair in the bed and the fitted sheet is stuck to the mattress with seminal fluids. I call and let the hostess know the situation and she moves next door. Same thing in that room so we finally get a clean room and by clean I mean the beds. The towels had pubic hair woven into them. They gave me a gift certificate for a free nights stay and informed me They would like me to give them a 10 but I don't want anyone to go through what we just went through. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r144074772-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>144074772</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>A set up hotel!!</t>
+  </si>
+  <si>
+    <t>My Husband stayed here for 2 nights on the 2nd night he came back to his rm from being at Applebees. There were cops in his room that went through all his stuff. They handcuffed him and had guns on him. They had the wrong guy. They also told my husband that they the police get a lot of business there.  So unless you want your rm raided all of your personal belongings gone through don't stay here!!!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r141430522-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
@@ -942,6 +1412,45 @@
     <t>Rooms were clean, staff were pleasant. The only problem we had was the air conditioner didn't work in our room very well, the window had no screen so we could open it to cool the room off, the window was broken, the beds are the most comfortable, and the hallway stunk. It is a pet friendly hotel which is really awesome the only problem is the pet owners need to take care of the animal and clean up after them in the rooms. The hallway smelled really bad from pet odor. The ice machines didn't work. But otherwise it was an ok place.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r138803140-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>138803140</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Smokers' Hotel</t>
+  </si>
+  <si>
+    <t>I asked for a non-smoking room because I am highly allergic. My room seemed okay but it didn't matter since the elevator and the hallways were full of smoke. I woke up sick after two horrible nights there. The towels smelled like moldy bacon. How is that even possible? I wouldn't have thrown by smelly towel on the bathroom floor if I had know that housekeeping was going to skip our room the next day. We were not traveling with a dog so there was no excuse to skip our room. Housekeeping also skipped the elevator and hallways because they were NEVER vacuumed the whole time we were there. When our friends dropped us off, at midnight, there were five police cars out front. They didn't want to leave us there, but it was too late to change motels. Actually the motel was much quieter after the police came so that was an improvement over the night before. The front next was concerned about our room not being cleaned and attempted to compensate by giving us a certificate for a free night's stay in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I asked for a non-smoking room because I am highly allergic. My room seemed okay but it didn't matter since the elevator and the hallways were full of smoke. I woke up sick after two horrible nights there. The towels smelled like moldy bacon. How is that even possible? I wouldn't have thrown by smelly towel on the bathroom floor if I had know that housekeeping was going to skip our room the next day. We were not traveling with a dog so there was no excuse to skip our room. Housekeeping also skipped the elevator and hallways because they were NEVER vacuumed the whole time we were there. When our friends dropped us off, at midnight, there were five police cars out front. They didn't want to leave us there, but it was too late to change motels. Actually the motel was much quieter after the police came so that was an improvement over the night before. The front next was concerned about our room not being cleaned and attempted to compensate by giving us a certificate for a free night's stay in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r137112701-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>137112701</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>One of the best Motel 6s ever stayed in</t>
+  </si>
+  <si>
+    <t>We have stayed in many Motel 6s over the years and this would probably be in the top 3.  The room was "refreshed" and had a mid century modern look to it.  A/c unit was updated - controlled by thermostat on the wall not one of those annoying ones that blow on you next to the bed.  The floors are not carpeted but have cool looking flooring.  Pro - nice, clean roomCons - towels were cheap and not enough for 3 people so I went down to get more...they had no large towels available b/c housekeeping not in so I was given what looked like bathtub floor mats.  No lids for the coffee in the entry way.  Seemed like when doors shut in the hallway it was quite loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed in many Motel 6s over the years and this would probably be in the top 3.  The room was "refreshed" and had a mid century modern look to it.  A/c unit was updated - controlled by thermostat on the wall not one of those annoying ones that blow on you next to the bed.  The floors are not carpeted but have cool looking flooring.  Pro - nice, clean roomCons - towels were cheap and not enough for 3 people so I went down to get more...they had no large towels available b/c housekeeping not in so I was given what looked like bathtub floor mats.  No lids for the coffee in the entry way.  Seemed like when doors shut in the hallway it was quite loud.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r133235757-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -990,6 +1499,68 @@
     <t>This little gem in the Rockies is close to the Airport, good food and the major highways!  The motel has been remodeled fairly recently and was fresh and clean looking!  I loved the lime green trim and linen decor.  The bathroom was large and well lit!  The beds were very comfortable. For a no amenities budget motel you get the feeling you are in a much fancier place.  I thought the staff was efficient and very pleasant to work with.  Request were handled with a smile!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r121973562-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>121973562</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>LOUD FRONT DESK CLERK</t>
+  </si>
+  <si>
+    <t>Let me start off by saying that I've saved tons of money staying at Motel 6.  They offer very basic amenities; which is to say a clean bed, hot water, and a clean room.  This is exactly what I got when I first entered the one in Aurora.  I was actually amazed at the modern furniture and decorations throughout the room.  
+After I went across the parking lot to get something to eat; things got TERRIBLE.  I walked back in the hotel, and the security guard, hotel clerk, and this gasbagging broad were in the lobby just laughing, yelling, and talking about whether or not Michael Jackson was gay (I kid you not!).  I went into my room on the first floor (mistake right there, I should have asked for a floor away from the lobby, I know!...But they were "full") and could clearly hear their conversation still!  This went on from about 9 p.m. until I went to bed.  Finally, as I LITERALLY put the pillow over my head to try to quiet them down, I had enough.  I went to the lobby, and politely asked the clerk to quiet down.  He looked at me like I was dripping with bacon grease, and gave me a half-hearted "Ok".  
+I went back to my room, and they went right at it again!  I had to be on the road early for my drive to Columbus, Nebraska!  I was furious as...Let me start off by saying that I've saved tons of money staying at Motel 6.  They offer very basic amenities; which is to say a clean bed, hot water, and a clean room.  This is exactly what I got when I first entered the one in Aurora.  I was actually amazed at the modern furniture and decorations throughout the room.  After I went across the parking lot to get something to eat; things got TERRIBLE.  I walked back in the hotel, and the security guard, hotel clerk, and this gasbagging broad were in the lobby just laughing, yelling, and talking about whether or not Michael Jackson was gay (I kid you not!).  I went into my room on the first floor (mistake right there, I should have asked for a floor away from the lobby, I know!...But they were "full") and could clearly hear their conversation still!  This went on from about 9 p.m. until I went to bed.  Finally, as I LITERALLY put the pillow over my head to try to quiet them down, I had enough.  I went to the lobby, and politely asked the clerk to quiet down.  He looked at me like I was dripping with bacon grease, and gave me a half-hearted "Ok".  I went back to my room, and they went right at it again!  I had to be on the road early for my drive to Columbus, Nebraska!  I was furious as hour after hour went with them constantly barking at each other (the broad had gone, but "Barney Fife" was there with the clerk, just yakking away).It was 2:30 a.m. and I had enough.  I went out there and asked to have my room moved.  He said he couldn't since the hotel was full.  I went back to my room; packed up, and left.  Get this, I went to ANOTHER MOTEL 6, and slept like a baby!I will give the District Manager credit; when I complained of this gross conduct by their staff, she immediately replied, and gave me a complimentary night.If you're forced to stay there, ask for a room away from---No, never mind..Don't stay there!  I also noticed some seedy people that I think lived there.  Screw this Motel 6.  Go to the one  in Denver off of  Federal Highway (I think).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Let me start off by saying that I've saved tons of money staying at Motel 6.  They offer very basic amenities; which is to say a clean bed, hot water, and a clean room.  This is exactly what I got when I first entered the one in Aurora.  I was actually amazed at the modern furniture and decorations throughout the room.  
+After I went across the parking lot to get something to eat; things got TERRIBLE.  I walked back in the hotel, and the security guard, hotel clerk, and this gasbagging broad were in the lobby just laughing, yelling, and talking about whether or not Michael Jackson was gay (I kid you not!).  I went into my room on the first floor (mistake right there, I should have asked for a floor away from the lobby, I know!...But they were "full") and could clearly hear their conversation still!  This went on from about 9 p.m. until I went to bed.  Finally, as I LITERALLY put the pillow over my head to try to quiet them down, I had enough.  I went to the lobby, and politely asked the clerk to quiet down.  He looked at me like I was dripping with bacon grease, and gave me a half-hearted "Ok".  
+I went back to my room, and they went right at it again!  I had to be on the road early for my drive to Columbus, Nebraska!  I was furious as...Let me start off by saying that I've saved tons of money staying at Motel 6.  They offer very basic amenities; which is to say a clean bed, hot water, and a clean room.  This is exactly what I got when I first entered the one in Aurora.  I was actually amazed at the modern furniture and decorations throughout the room.  After I went across the parking lot to get something to eat; things got TERRIBLE.  I walked back in the hotel, and the security guard, hotel clerk, and this gasbagging broad were in the lobby just laughing, yelling, and talking about whether or not Michael Jackson was gay (I kid you not!).  I went into my room on the first floor (mistake right there, I should have asked for a floor away from the lobby, I know!...But they were "full") and could clearly hear their conversation still!  This went on from about 9 p.m. until I went to bed.  Finally, as I LITERALLY put the pillow over my head to try to quiet them down, I had enough.  I went to the lobby, and politely asked the clerk to quiet down.  He looked at me like I was dripping with bacon grease, and gave me a half-hearted "Ok".  I went back to my room, and they went right at it again!  I had to be on the road early for my drive to Columbus, Nebraska!  I was furious as hour after hour went with them constantly barking at each other (the broad had gone, but "Barney Fife" was there with the clerk, just yakking away).It was 2:30 a.m. and I had enough.  I went out there and asked to have my room moved.  He said he couldn't since the hotel was full.  I went back to my room; packed up, and left.  Get this, I went to ANOTHER MOTEL 6, and slept like a baby!I will give the District Manager credit; when I complained of this gross conduct by their staff, she immediately replied, and gave me a complimentary night.If you're forced to stay there, ask for a room away from---No, never mind..Don't stay there!  I also noticed some seedy people that I think lived there.  Screw this Motel 6.  Go to the one  in Denver off of  Federal Highway (I think).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r116326410-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>116326410</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>Great price for a quick stop. Might want earplugs.</t>
+  </si>
+  <si>
+    <t>Pros: clean, updated, convenient location; CHEAP.
+Cons: some rooms are noisy; sheets are cheap.
+This price was cheap enough that we could get our family of four adults three rooms instead of crowding into one suite. We just needed a place to sleep for 8 hours before hitting the road again. Except for a couple complaints, it worked well for that.
+Let's get the complaints out of the way first...
+One of the rooms was extremely noisy; the other two rooms did not have that complaint. In the noisy room, we heard people walking and running on the floor above us, some strange high-pitched noise, and the very loud AC unit -- one or the other of these happened every 20 minutes or so. If you're a sound sleeper or bring good earplugs, this might not be a problem for you.
+The sheets were low-count thread and a bit scratchy. I ended up taking the pillow case off and sleeping on the bare pillow; it was much more comfortable like that.
+Several of the characters in the lobby (including one guy who appeared to be the manager) looked kinda seedy, but the guy behind the desk was completely professional, even though he was having a very busy time on a sold-out night.
+The positives...
+The hotel has been updated recently; everything looked very clean and new. The quality of the materials are kind of cheap, but that doesn't affect how...Pros: clean, updated, convenient location; CHEAP.Cons: some rooms are noisy; sheets are cheap.This price was cheap enough that we could get our family of four adults three rooms instead of crowding into one suite. We just needed a place to sleep for 8 hours before hitting the road again. Except for a couple complaints, it worked well for that.Let's get the complaints out of the way first...One of the rooms was extremely noisy; the other two rooms did not have that complaint. In the noisy room, we heard people walking and running on the floor above us, some strange high-pitched noise, and the very loud AC unit -- one or the other of these happened every 20 minutes or so. If you're a sound sleeper or bring good earplugs, this might not be a problem for you.The sheets were low-count thread and a bit scratchy. I ended up taking the pillow case off and sleeping on the bare pillow; it was much more comfortable like that.Several of the characters in the lobby (including one guy who appeared to be the manager) looked kinda seedy, but the guy behind the desk was completely professional, even though he was having a very busy time on a sold-out night.The positives...The hotel has been updated recently; everything looked very clean and new. The quality of the materials are kind of cheap, but that doesn't affect how you sleep, does it?It's just a couple miles off I-70; very easy to get to and get back on the road.Rosie's Diner just out the front of the hotel serves a pretty good breakfast.And last but not least, you just can't beat the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Pros: clean, updated, convenient location; CHEAP.
+Cons: some rooms are noisy; sheets are cheap.
+This price was cheap enough that we could get our family of four adults three rooms instead of crowding into one suite. We just needed a place to sleep for 8 hours before hitting the road again. Except for a couple complaints, it worked well for that.
+Let's get the complaints out of the way first...
+One of the rooms was extremely noisy; the other two rooms did not have that complaint. In the noisy room, we heard people walking and running on the floor above us, some strange high-pitched noise, and the very loud AC unit -- one or the other of these happened every 20 minutes or so. If you're a sound sleeper or bring good earplugs, this might not be a problem for you.
+The sheets were low-count thread and a bit scratchy. I ended up taking the pillow case off and sleeping on the bare pillow; it was much more comfortable like that.
+Several of the characters in the lobby (including one guy who appeared to be the manager) looked kinda seedy, but the guy behind the desk was completely professional, even though he was having a very busy time on a sold-out night.
+The positives...
+The hotel has been updated recently; everything looked very clean and new. The quality of the materials are kind of cheap, but that doesn't affect how...Pros: clean, updated, convenient location; CHEAP.Cons: some rooms are noisy; sheets are cheap.This price was cheap enough that we could get our family of four adults three rooms instead of crowding into one suite. We just needed a place to sleep for 8 hours before hitting the road again. Except for a couple complaints, it worked well for that.Let's get the complaints out of the way first...One of the rooms was extremely noisy; the other two rooms did not have that complaint. In the noisy room, we heard people walking and running on the floor above us, some strange high-pitched noise, and the very loud AC unit -- one or the other of these happened every 20 minutes or so. If you're a sound sleeper or bring good earplugs, this might not be a problem for you.The sheets were low-count thread and a bit scratchy. I ended up taking the pillow case off and sleeping on the bare pillow; it was much more comfortable like that.Several of the characters in the lobby (including one guy who appeared to be the manager) looked kinda seedy, but the guy behind the desk was completely professional, even though he was having a very busy time on a sold-out night.The positives...The hotel has been updated recently; everything looked very clean and new. The quality of the materials are kind of cheap, but that doesn't affect how you sleep, does it?It's just a couple miles off I-70; very easy to get to and get back on the road.Rosie's Diner just out the front of the hotel serves a pretty good breakfast.And last but not least, you just can't beat the price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r116267569-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1005,9 +1576,6 @@
     <t>We always stayed at another chain but had a bad experience en route; Motel 6 was our only option in this part of the city because it was pet-friendly. It has caused us to switch over to this company entirely. The people at the desk couldn't have been more helpful. They went beyond out of their way. We are so happy to know about Motel 6's amenities and will be frequent guests in other cities.</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r115942006-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1042,6 +1610,48 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r33515567-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>33515567</t>
+  </si>
+  <si>
+    <t>06/29/2009</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>I  have stayed at a number of Motel 6 properties and know what to expect.  The staff was helpful, the room clean, and the basic amenities were included.  The choice of restaurants in the area was very nice.  I chose to purchase access to their wireless Internet ($2.99+tax) but found that it was almost unusable.  I was able to check my email and check a couple of other sites, but the connection was so intermittent that any type of higher-bandwidth activities would have been impossible.  I would imagine it was a hardware issue, and did mention it when I checked out, but I don't think the staff was knowledgeable enough to haved fixed the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I  have stayed at a number of Motel 6 properties and know what to expect.  The staff was helpful, the room clean, and the basic amenities were included.  The choice of restaurants in the area was very nice.  I chose to purchase access to their wireless Internet ($2.99+tax) but found that it was almost unusable.  I was able to check my email and check a couple of other sites, but the connection was so intermittent that any type of higher-bandwidth activities would have been impossible.  I would imagine it was a hardware issue, and did mention it when I checked out, but I don't think the staff was knowledgeable enough to haved fixed the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r18051692-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>18051692</t>
+  </si>
+  <si>
+    <t>07/19/2008</t>
+  </si>
+  <si>
+    <t>Never Again!!!!!</t>
+  </si>
+  <si>
+    <t>I had a previous horrid experience at a Motel 6 in another state and at that time I said "never again" but I am saying it again! First off, I will say that the hotel looked great from the outside. Looked like it had been recently remodeled or updated. At the Motel 6, you get what you pay for! The very strange man working the front desk told us to make sure to park as close to the front door as possible-he was inferring that it wasn't safe around the sides or back. The man made inappropriate comments about making sure we had a strong bed, thinking he was being funny. The room had the very bear necessities. The bed was so low to the ground, the pillows had to be folded over just to raise our heads, the walls were dirty or stained in some spots. We ended up sleeping in our clothes with no blankets because we were just grossed out by the whole room. I found a HUGE yellow stain on my bath towel and all of our towels smelled moldy. There was no ironing board or blow dryer. I am not a high maintainence gal, but I was wishing we hadn't been so cheap and just shelled out a $100 for a nicer hotel. So I am going on the record saying "Never Again!!!"MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I had a previous horrid experience at a Motel 6 in another state and at that time I said "never again" but I am saying it again! First off, I will say that the hotel looked great from the outside. Looked like it had been recently remodeled or updated. At the Motel 6, you get what you pay for! The very strange man working the front desk told us to make sure to park as close to the front door as possible-he was inferring that it wasn't safe around the sides or back. The man made inappropriate comments about making sure we had a strong bed, thinking he was being funny. The room had the very bear necessities. The bed was so low to the ground, the pillows had to be folded over just to raise our heads, the walls were dirty or stained in some spots. We ended up sleeping in our clothes with no blankets because we were just grossed out by the whole room. I found a HUGE yellow stain on my bath towel and all of our towels smelled moldy. There was no ironing board or blow dryer. I am not a high maintainence gal, but I was wishing we hadn't been so cheap and just shelled out a $100 for a nicer hotel. So I am going on the record saying "Never Again!!!"More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119936-r10150306-Motel_6_Denver_East_Aurora-Aurora_Colorado.html</t>
@@ -1597,7 +2207,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1606,11 +2216,17 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1654,13 +2270,13 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1671,14 +2287,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1694,34 +2306,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1735,7 +2347,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1751,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1760,25 +2372,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1792,7 +2404,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1808,31 +2420,31 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -1846,10 +2458,14 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1865,34 +2481,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1906,7 +2522,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1922,46 +2538,46 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2010,13 +2626,13 @@
         <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2027,10 +2643,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2046,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2055,38 +2675,32 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2109,7 +2723,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2118,25 +2732,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2150,7 +2764,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2166,7 +2780,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2175,25 +2789,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2204,14 +2818,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" t="s">
-        <v>125</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2227,52 +2837,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>128</v>
       </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>129</v>
       </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2288,7 +2904,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2297,26 +2913,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
-      </c>
-      <c r="O14" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2326,10 +2938,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2345,7 +2961,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2354,29 +2970,31 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
@@ -2387,10 +3005,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2406,7 +3028,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2415,25 +3037,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>146</v>
       </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
-      </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2447,7 +3069,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2463,7 +3085,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2472,39 +3094,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -2520,7 +3148,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2529,26 +3157,22 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O18" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2561,7 +3185,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -2577,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2586,45 +3210,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -2640,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2649,45 +3267,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -2703,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2712,45 +3324,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
@@ -2766,7 +3376,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2775,41 +3385,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -2825,7 +3437,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2834,22 +3446,26 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -2860,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="X23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -2882,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2891,45 +3507,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -2945,54 +3555,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L25" t="s">
-        <v>205</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>206</v>
-      </c>
       <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -3029,37 +3633,31 @@
         <v>211</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
         <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X26" t="s">
-        <v>214</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -3075,56 +3673,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
         <v>216</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>217</v>
-      </c>
-      <c r="J27" t="s">
-        <v>218</v>
-      </c>
-      <c r="K27" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" t="s">
-        <v>220</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>221</v>
-      </c>
-      <c r="X27" t="s">
-        <v>222</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
@@ -3140,34 +3730,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>225</v>
-      </c>
-      <c r="J28" t="s">
-        <v>226</v>
-      </c>
-      <c r="K28" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" t="s">
-        <v>228</v>
-      </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3181,7 +3771,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3206,25 +3796,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3238,7 +3828,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -3254,7 +3844,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3263,49 +3853,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
         <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>241</v>
-      </c>
-      <c r="X30" t="s">
-        <v>242</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
@@ -3321,7 +3901,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3330,49 +3910,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>250</v>
-      </c>
-      <c r="X31" t="s">
-        <v>251</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
@@ -3388,7 +3958,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3397,31 +3967,31 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
@@ -3435,7 +4005,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -3451,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3460,34 +4030,30 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>1</v>
@@ -3498,7 +4064,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -3514,7 +4080,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3523,49 +4089,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
@@ -3581,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3590,41 +4146,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3632,7 +4184,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -3648,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3657,38 +4209,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3699,7 +4247,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
@@ -3715,7 +4263,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3724,41 +4272,33 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3766,7 +4306,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -3782,7 +4322,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3791,38 +4331,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>293</v>
-      </c>
-      <c r="O38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
       <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>4</v>
@@ -3833,7 +4369,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
@@ -3849,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3858,41 +4394,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3900,7 +4430,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
@@ -3916,7 +4446,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3925,49 +4455,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
         <v>293</v>
       </c>
-      <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="X40" t="s">
+        <v>294</v>
+      </c>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41">
@@ -3983,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3992,37 +4512,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
         <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4030,7 +4550,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
@@ -4046,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4055,38 +4575,34 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4097,7 +4613,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -4113,7 +4629,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4122,41 +4638,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J43" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4164,7 +4674,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
@@ -4180,7 +4690,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4189,45 +4699,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="J44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>327</v>
-      </c>
-      <c r="O44" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
@@ -4243,7 +4743,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4252,45 +4752,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>324</v>
+      </c>
+      <c r="X45" t="s">
+        <v>325</v>
+      </c>
       <c r="Y45" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
@@ -4306,7 +4810,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4315,49 +4819,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J46" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K46" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
       </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>332</v>
+      </c>
+      <c r="X46" t="s">
+        <v>333</v>
+      </c>
       <c r="Y46" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -4373,58 +4875,2187 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>336</v>
+      </c>
+      <c r="J47" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>340</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>341</v>
-      </c>
-      <c r="J47" t="s">
-        <v>342</v>
-      </c>
-      <c r="K47" t="s">
-        <v>343</v>
-      </c>
-      <c r="L47" t="s">
-        <v>344</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>345</v>
-      </c>
       <c r="O47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>3</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
         <v>346</v>
+      </c>
+      <c r="O48" t="s">
+        <v>96</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>347</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" t="s">
+        <v>350</v>
+      </c>
+      <c r="L49" t="s">
+        <v>351</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s">
+        <v>358</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>346</v>
+      </c>
+      <c r="O51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>364</v>
+      </c>
+      <c r="X51" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>367</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>372</v>
+      </c>
+      <c r="O52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>373</v>
+      </c>
+      <c r="X52" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>377</v>
+      </c>
+      <c r="J53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>372</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>373</v>
+      </c>
+      <c r="X53" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>372</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" t="s">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s">
+        <v>394</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="s">
+        <v>397</v>
+      </c>
+      <c r="K57" t="s">
+        <v>398</v>
+      </c>
+      <c r="L57" t="s">
+        <v>399</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>400</v>
+      </c>
+      <c r="O57" t="s">
+        <v>112</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
+        <v>406</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>414</v>
+      </c>
+      <c r="J60" t="s">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s">
+        <v>416</v>
+      </c>
+      <c r="L60" t="s">
+        <v>417</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>418</v>
+      </c>
+      <c r="O60" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>421</v>
+      </c>
+      <c r="J61" t="s">
+        <v>422</v>
+      </c>
+      <c r="K61" t="s">
+        <v>423</v>
+      </c>
+      <c r="L61" t="s">
+        <v>424</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>418</v>
+      </c>
+      <c r="O61" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>426</v>
+      </c>
+      <c r="J62" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" t="s">
+        <v>428</v>
+      </c>
+      <c r="L62" t="s">
+        <v>429</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>430</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>432</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>433</v>
+      </c>
+      <c r="J63" t="s">
+        <v>434</v>
+      </c>
+      <c r="K63" t="s">
+        <v>435</v>
+      </c>
+      <c r="L63" t="s">
+        <v>436</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>443</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>445</v>
+      </c>
+      <c r="J65" t="s">
+        <v>446</v>
+      </c>
+      <c r="K65" t="s">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s">
+        <v>448</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>449</v>
+      </c>
+      <c r="O65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>450</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>451</v>
+      </c>
+      <c r="J66" t="s">
+        <v>452</v>
+      </c>
+      <c r="K66" t="s">
+        <v>453</v>
+      </c>
+      <c r="L66" t="s">
+        <v>454</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>455</v>
+      </c>
+      <c r="O66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>457</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>458</v>
+      </c>
+      <c r="J67" t="s">
+        <v>459</v>
+      </c>
+      <c r="K67" t="s">
+        <v>460</v>
+      </c>
+      <c r="L67" t="s">
+        <v>461</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>449</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>463</v>
+      </c>
+      <c r="J68" t="s">
+        <v>464</v>
+      </c>
+      <c r="K68" t="s">
+        <v>465</v>
+      </c>
+      <c r="L68" t="s">
+        <v>466</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>467</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>469</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>470</v>
+      </c>
+      <c r="J69" t="s">
+        <v>471</v>
+      </c>
+      <c r="K69" t="s">
+        <v>472</v>
+      </c>
+      <c r="L69" t="s">
+        <v>473</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>467</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J70" t="s">
+        <v>477</v>
+      </c>
+      <c r="K70" t="s">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s">
+        <v>479</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>481</v>
+      </c>
+      <c r="J71" t="s">
+        <v>482</v>
+      </c>
+      <c r="K71" t="s">
+        <v>483</v>
+      </c>
+      <c r="L71" t="s">
+        <v>484</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>485</v>
+      </c>
+      <c r="O71" t="s">
+        <v>112</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>487</v>
+      </c>
+      <c r="J72" t="s">
+        <v>488</v>
+      </c>
+      <c r="K72" t="s">
+        <v>489</v>
+      </c>
+      <c r="L72" t="s">
+        <v>490</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>485</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" t="s">
+        <v>493</v>
+      </c>
+      <c r="K73" t="s">
+        <v>494</v>
+      </c>
+      <c r="L73" t="s">
+        <v>495</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>496</v>
+      </c>
+      <c r="O73" t="s">
+        <v>112</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>499</v>
+      </c>
+      <c r="J74" t="s">
+        <v>500</v>
+      </c>
+      <c r="K74" t="s">
+        <v>501</v>
+      </c>
+      <c r="L74" t="s">
+        <v>502</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>503</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>505</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>506</v>
+      </c>
+      <c r="J75" t="s">
+        <v>507</v>
+      </c>
+      <c r="K75" t="s">
+        <v>508</v>
+      </c>
+      <c r="L75" t="s">
+        <v>509</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>496</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>510</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>511</v>
+      </c>
+      <c r="J76" t="s">
+        <v>512</v>
+      </c>
+      <c r="K76" t="s">
+        <v>513</v>
+      </c>
+      <c r="L76" t="s">
+        <v>514</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>515</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>516</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>517</v>
+      </c>
+      <c r="J77" t="s">
+        <v>518</v>
+      </c>
+      <c r="K77" t="s">
+        <v>519</v>
+      </c>
+      <c r="L77" t="s">
+        <v>520</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>521</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>522</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>523</v>
+      </c>
+      <c r="J78" t="s">
+        <v>524</v>
+      </c>
+      <c r="K78" t="s">
+        <v>525</v>
+      </c>
+      <c r="L78" t="s">
+        <v>526</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>527</v>
+      </c>
+      <c r="O78" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>529</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>530</v>
+      </c>
+      <c r="J79" t="s">
+        <v>531</v>
+      </c>
+      <c r="K79" t="s">
+        <v>532</v>
+      </c>
+      <c r="L79" t="s">
+        <v>533</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>534</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36043</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>536</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>537</v>
+      </c>
+      <c r="J80" t="s">
+        <v>538</v>
+      </c>
+      <c r="K80" t="s">
+        <v>539</v>
+      </c>
+      <c r="L80" t="s">
+        <v>540</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>541</v>
+      </c>
+      <c r="O80" t="s">
+        <v>112</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
